--- a/data/trans_camb/P19-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>5.825254363660948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.5370230991008529</v>
+        <v>-0.5370230991008557</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.557375963586238</v>
@@ -655,7 +655,7 @@
         <v>3.448209337465735</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.302228152579616</v>
+        <v>-2.302228152579622</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.015501070928387</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.683934745085583</v>
+        <v>-5.092349329542739</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.102483801805272</v>
+        <v>1.363189601049952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.399974717781625</v>
+        <v>-5.255505682183726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.986854602220838</v>
+        <v>-6.189884247950346</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.625357607506774</v>
+        <v>-1.574426465819241</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.410576395048865</v>
+        <v>-7.080691006180049</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.490732821860171</v>
+        <v>-4.308915900276241</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.236377748890752</v>
+        <v>1.268006170944671</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.748051058601216</v>
+        <v>-4.46828438086164</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.0179884045019</v>
+        <v>4.085002688850292</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.23357458192693</v>
+        <v>11.07553469819644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.258934586714024</v>
+        <v>4.00092986625158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.511773637877422</v>
+        <v>3.910021448012715</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.579681299616777</v>
+        <v>8.584675988726437</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.813893110719541</v>
+        <v>2.270522588415948</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.12373595814881</v>
+        <v>2.319651996742438</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.127836906318384</v>
+        <v>8.31404458733182</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.863299222661849</v>
+        <v>2.391743668906641</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2564327278557351</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.02364022060273208</v>
+        <v>-0.0236402206027322</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.05012199676401426</v>
@@ -760,7 +760,7 @@
         <v>0.1109758602258863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.07409403683610165</v>
+        <v>-0.07409403683610183</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.03778722929142282</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1896325335048244</v>
+        <v>-0.2089464078090204</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04768669013752336</v>
+        <v>0.05625069335187281</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2210276593737477</v>
+        <v>-0.2123001055388606</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2075541886707783</v>
+        <v>-0.1842207437710056</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04859699419375155</v>
+        <v>-0.04790422789060415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1945586243659025</v>
+        <v>-0.2103980423558247</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1566741780877897</v>
+        <v>-0.1513585510833993</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04286250786768792</v>
+        <v>0.04317022497827269</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1650888776423027</v>
+        <v>-0.1545382816258792</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1830293015583933</v>
+        <v>0.2044429904598142</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5008972945653414</v>
+        <v>0.5418668187962922</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2036275799770487</v>
+        <v>0.1987888452113683</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.122687457345472</v>
+        <v>0.1394139119587606</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3018756929116927</v>
+        <v>0.3011893459437605</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1001303878745443</v>
+        <v>0.08035588925114721</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08143614335330149</v>
+        <v>0.08829342157527403</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.322412129563786</v>
+        <v>0.3241412869545864</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.07249626185142252</v>
+        <v>0.09261848379171433</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.400819611938416</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.9909535655755863</v>
+        <v>-0.9909535655755836</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.268400102064249</v>
@@ -869,7 +869,7 @@
         <v>4.2994930111388</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-4.268163726842783</v>
+        <v>-4.268163726842788</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.206473981592054</v>
@@ -878,7 +878,7 @@
         <v>3.875950024276004</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.620916186016048</v>
+        <v>-2.620916186016042</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.046504953183479</v>
+        <v>-4.96799328250018</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3481564182248236</v>
+        <v>-0.5586989020096088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.202739409149608</v>
+        <v>-5.171301722358688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.58364682351079</v>
+        <v>-5.401437907280121</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1239560713693108</v>
+        <v>-0.1063052067219476</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.742507501940992</v>
+        <v>-8.184646373176548</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.326716610320773</v>
+        <v>-4.294430423946067</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6478179489391152</v>
+        <v>1.066923846110995</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.369075469145215</v>
+        <v>-5.465143281443478</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.912904006864776</v>
+        <v>2.958127359879501</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.54700603337098</v>
+        <v>7.613491789626346</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.598327833457684</v>
+        <v>3.381655019024782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.960934306415846</v>
+        <v>3.072479539128152</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.883608710231675</v>
+        <v>8.222672307803295</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.4014132397918467</v>
+        <v>-0.1450392185711869</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.548820589420771</v>
+        <v>1.482538533902913</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.697547443254022</v>
+        <v>6.817894413752549</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2738398644869807</v>
+        <v>0.4257057088525629</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1368083020774925</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.03986411812850017</v>
+        <v>-0.03986411812850005</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.04036604627804093</v>
@@ -974,7 +974,7 @@
         <v>0.1368286974885085</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1358316624538275</v>
+        <v>-0.1358316624538277</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.0428563534592709</v>
@@ -983,7 +983,7 @@
         <v>0.1376814475614681</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.09310015149005321</v>
+        <v>-0.09310015149005302</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1863685482194894</v>
+        <v>-0.1866038206024779</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01415178858517111</v>
+        <v>-0.02331676267627694</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.196850501784651</v>
+        <v>-0.1921356144631958</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1638433622907518</v>
+        <v>-0.1607303201261746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.001979403086634099</v>
+        <v>-0.003603627229209192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2351477912125566</v>
+        <v>-0.2462497959896188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1480424391122573</v>
+        <v>-0.1453634601985686</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02259912135885426</v>
+        <v>0.03490935445360707</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1813829128440602</v>
+        <v>-0.183765571178779</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1242199468676344</v>
+        <v>0.1374258646288408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.328599999008933</v>
+        <v>0.336571643367262</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1608626675272867</v>
+        <v>0.1514284911228451</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1018299023799607</v>
+        <v>0.1032658541524356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3056274667082492</v>
+        <v>0.2755475963022508</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.01334014825945653</v>
+        <v>-0.007778369889860233</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0583787257415841</v>
+        <v>0.05640674400053467</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2489048128317885</v>
+        <v>0.2576821860025596</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.009786363786647323</v>
+        <v>0.01627858187605778</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.683479641061627</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.533703063036147</v>
+        <v>2.533703063036141</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-3.240069828313052</v>
@@ -1083,7 +1083,7 @@
         <v>2.433310880948814</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.125741895035082</v>
+        <v>1.125741895035087</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.086437648255712</v>
@@ -1092,7 +1092,7 @@
         <v>3.080028507147886</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.821658010960758</v>
+        <v>1.821658010960764</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.284029909960904</v>
+        <v>-5.830756897044093</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.484643581716059</v>
+        <v>-1.236764175489537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.507056705227213</v>
+        <v>-2.265380699719023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.324521692559243</v>
+        <v>-8.420443134452448</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.236092962607912</v>
+        <v>-2.631709839190219</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.234474051645182</v>
+        <v>-3.804027077139446</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.553902272702786</v>
+        <v>-5.539482791572303</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.4405221314704877</v>
+        <v>-0.128051149800213</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.63935717752916</v>
+        <v>-1.639306927638195</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.985278121281115</v>
+        <v>4.007291620447493</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.395692012086165</v>
+        <v>8.875933988923027</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.479047574749634</v>
+        <v>7.846717192665439</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.592321025424741</v>
+        <v>1.705520603792419</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.349332593149732</v>
+        <v>7.754536818295652</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.846138573918875</v>
+        <v>5.132895210717439</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.205552361152425</v>
+        <v>1.322394026508198</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.483326530172214</v>
+        <v>6.741466219885922</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.288683770765692</v>
+        <v>5.333473571549063</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1342707972128614</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.09235895493547007</v>
+        <v>0.09235895493546988</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.0996483106912595</v>
@@ -1188,7 +1188,7 @@
         <v>0.07483644844761105</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.034622179168598</v>
+        <v>0.03462217916859817</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.06958485370658692</v>
@@ -1197,7 +1197,7 @@
         <v>0.1027221365858596</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.06075417892411462</v>
+        <v>0.0607541789241148</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2021815062306913</v>
+        <v>-0.1941055292343602</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04962647659732509</v>
+        <v>-0.04418318811284661</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08267110834169843</v>
+        <v>-0.08140277453059727</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2401761912198533</v>
+        <v>-0.237932339933076</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06178078933039551</v>
+        <v>-0.07880861132852612</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.09269064908534619</v>
+        <v>-0.109996163351867</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1725719781979468</v>
+        <v>-0.1747603271573288</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01347421206006072</v>
+        <v>-0.003938839468976479</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05228738272502322</v>
+        <v>-0.05278601355694534</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1605692089903344</v>
+        <v>0.1622101975486663</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3315669886339485</v>
+        <v>0.3508139485597861</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3014448079926516</v>
+        <v>0.3102108502493414</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.05259818642910802</v>
+        <v>0.05855613727755961</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2467470473883401</v>
+        <v>0.256654696122091</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1964554611701075</v>
+        <v>0.1720441513933635</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0425116062127306</v>
+        <v>0.0467275033432419</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2267323285961937</v>
+        <v>0.2405585960278635</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1851143824533403</v>
+        <v>0.1877103796398575</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>3.143737629867521</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.167442304133684</v>
+        <v>4.167442304133679</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.285059184693394</v>
+        <v>-2.628725610751233</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1112176223054366</v>
+        <v>-0.418043000165381</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.0583502969249869</v>
+        <v>-0.07542118237022245</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.667425340125464</v>
+        <v>-3.135977159877099</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.666892878923301</v>
+        <v>-1.655545000562885</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2119668855663205</v>
+        <v>0.5977802013283849</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.473721675594055</v>
+        <v>-1.787786243447918</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1314709659028304</v>
+        <v>0.4350906592167796</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.527873278001719</v>
+        <v>1.228305369096125</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.769703615045764</v>
+        <v>5.239686009204174</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.800313993504772</v>
+        <v>7.76138261224334</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.394161340839574</v>
+        <v>8.165477489008055</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.121051237392399</v>
+        <v>4.940160833215212</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.738048729932111</v>
+        <v>6.386521477513053</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.920034405873637</v>
+        <v>8.310694243607248</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.175033005320553</v>
+        <v>4.099816276274763</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.932299558503497</v>
+        <v>6.279964959241465</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.856726401525982</v>
+        <v>6.960679188182467</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1130065523190065</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1498052134835343</v>
+        <v>0.1498052134835341</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08712304215987804</v>
+        <v>-0.09797241943301606</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.004184348589625357</v>
+        <v>-0.01629288701480109</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.002306338922466079</v>
+        <v>-0.003350148892757387</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08263001374062295</v>
+        <v>-0.09717071397719935</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05017608046070863</v>
+        <v>-0.05665619338368735</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006614851955358242</v>
+        <v>0.01796987730196732</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05249319365386912</v>
+        <v>-0.06103397954207202</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.004106881861347405</v>
+        <v>0.0142685001804009</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05178893169170742</v>
+        <v>0.04149493753867082</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2468082349386892</v>
+        <v>0.2322822949678265</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.339269206482037</v>
+        <v>0.3410409858038814</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3601689658247782</v>
+        <v>0.3540921259507643</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1793292726486198</v>
+        <v>0.1683707935711351</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2370584787993852</v>
+        <v>0.2154629078954257</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2775430885985579</v>
+        <v>0.2925252040603362</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1603230281220605</v>
+        <v>0.1558305102356414</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2249991068664264</v>
+        <v>0.235382251688885</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2629189789981717</v>
+        <v>0.2617727595615708</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.180308805355986</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.444930485354501</v>
+        <v>1.444930485354506</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.019682379774528</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.302109184212839</v>
+        <v>-2.341038673798026</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.071696714370336</v>
+        <v>1.964559854069952</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.623296113197583</v>
+        <v>-0.8086241396994315</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.412678673514273</v>
+        <v>-3.458970927181257</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7433017780272386</v>
+        <v>0.8215965402339795</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.087562141352672</v>
+        <v>-2.285180425265753</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.16988553791904</v>
+        <v>-2.241176392312098</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.14878470734824</v>
+        <v>2.210220138305912</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.9449490452102823</v>
+        <v>-0.92740479885669</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.917645267654746</v>
+        <v>2.095168759770614</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.363224860792151</v>
+        <v>6.378291584460401</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.663607569839572</v>
+        <v>3.940685132487172</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.125827603438019</v>
+        <v>1.108355757623114</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.575132685923541</v>
+        <v>5.393970529614571</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.9349162140566</v>
+        <v>1.997429852014223</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.020180013707229</v>
+        <v>1.077603191987176</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.347983971114615</v>
+        <v>5.284676791141659</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.142597670877042</v>
+        <v>2.309549351895767</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1680309685594636</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.05808017547510749</v>
+        <v>0.05808017547510771</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.03252859144367393</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.08944601908811287</v>
+        <v>-0.09072091781825461</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.07962651872465704</v>
+        <v>0.07655340029130164</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02371968370103209</v>
+        <v>-0.03070909577148846</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1053449763184491</v>
+        <v>-0.1066301525484231</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02342532277615691</v>
+        <v>0.02397048127430636</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06589089448642792</v>
+        <v>-0.06931003678113326</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07517323027337172</v>
+        <v>-0.07690364972851514</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07333788673288258</v>
+        <v>0.07698994286668302</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03302026627629862</v>
+        <v>-0.03184020845804978</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.08040572346389144</v>
+        <v>0.08887782252351646</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2689483838627912</v>
+        <v>0.2676220357534412</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1536851294477536</v>
+        <v>0.1654410679877908</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.03778484042088746</v>
+        <v>0.03665103325390829</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1858516094627176</v>
+        <v>0.1781076319061716</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06450812245955399</v>
+        <v>0.06564461042909307</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0366973247172088</v>
+        <v>0.03936668962208205</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1950822850425769</v>
+        <v>0.1934029833660461</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.07803136133360319</v>
+        <v>0.08461223853667256</v>
       </c>
     </row>
     <row r="34">
